--- a/data/nath_jones.xlsx
+++ b/data/nath_jones.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA6871F-EF0F-4085-BDA3-83605DA82F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43835AFA-B922-4ED7-9847-1AAA1129015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1590" windowWidth="17960" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="75" windowWidth="19785" windowHeight="11940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nath_jones" sheetId="1" r:id="rId1"/>
+    <sheet name="minmax" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Firm</t>
   </si>
@@ -65,6 +79,30 @@
   </si>
   <si>
     <t>Box3-class2</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>OCDT</t>
+  </si>
+  <si>
+    <t>d4</t>
   </si>
 </sst>
 </file>
@@ -388,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -503,6 +541,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -548,8 +666,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -606,6 +733,1333 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nath_jones!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.44850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.56330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.5299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.2298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nath_jones!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5134000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4543999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3736999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3723000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1495000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8762000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6756</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1434</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E590-4BE4-B9CC-FF26856B653D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nath_jones!$B$23:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.51349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58079999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nath_jones!$D$23:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.4870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0068999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2650999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2505999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2918000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9939</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9165999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0594000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E590-4BE4-B9CC-FF26856B653D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1840313599"/>
+        <c:axId val="1844952959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1840313599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844952959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1844952959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1840313599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305752</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62AC5FD-4B17-3610-E2F6-57B0271C491C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05479</cdr:x>
+      <cdr:y>0.65408</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96555</cdr:x>
+      <cdr:y>0.65681</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C0E216-95A0-9313-B71A-8C49AC6B3E03}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="284798" y="2276476"/>
+          <a:ext cx="4733925" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01814</cdr:x>
+      <cdr:y>0.59387</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93989</cdr:x>
+      <cdr:y>0.59661</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83B058C-538C-EBCF-5E56-CFAE5A4EE4D6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="94298" y="2066926"/>
+          <a:ext cx="4791075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57339</cdr:x>
+      <cdr:y>0.04105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.57522</cdr:x>
+      <cdr:y>0.92501</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5651A692-4250-F274-9D4F-24B6192C2216}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="2980373" y="142876"/>
+          <a:ext cx="9525" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,16 +2361,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +2396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -968,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -994,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1020,7 +2474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1040,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1060,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1092,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1136,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1183,7 +2637,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,7 +2684,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1277,7 +2731,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1297,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1317,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1337,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1357,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1377,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1397,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1417,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1437,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1457,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1477,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1497,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1517,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1537,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1557,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1577,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1597,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1617,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1637,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1657,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1677,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1697,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1717,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1737,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1757,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1777,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1797,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1817,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1837,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1857,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1877,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1897,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1917,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1937,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1957,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1977,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1995,6 +3449,2970 @@
       </c>
       <c r="F47">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15854460-3AEA-42B1-A0E8-A259ADCC34E5}">
+  <dimension ref="A1:AE47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-0.44850000000000001</v>
+      </c>
+      <c r="B2">
+        <v>-0.41060000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.0865</v>
+      </c>
+      <c r="D2">
+        <v>0.4526</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <f>MIN(A2:A47)</f>
+        <v>-0.56330000000000002</v>
+      </c>
+      <c r="I2">
+        <f>MIN(B2:B47)</f>
+        <v>-0.41060000000000002</v>
+      </c>
+      <c r="J2">
+        <f>MIN(C2:C47)</f>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L2">
+        <f>(A2-$H$2)/($H$3-$H$2)</f>
+        <v>0.10034087929376805</v>
+      </c>
+      <c r="M2">
+        <f>(B2-$I$2)/($I$3-$I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>(C2-$J$2)/($J$3-$J$2)</f>
+        <v>0.1597792064969123</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>ABS(L2-$H$9)</f>
+        <v>0.50651166856044061</v>
+      </c>
+      <c r="R2">
+        <f>ABS(N2-$J$9)</f>
+        <v>0.13736147534049575</v>
+      </c>
+      <c r="S2">
+        <f>ABS(N2-$J$10)</f>
+        <v>0.22682091193638437</v>
+      </c>
+      <c r="T2">
+        <f>MIN(Q2:Q47)</f>
+        <v>6.030941351280461E-3</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:V2" si="0">MIN(R2:R47)</f>
+        <v>1.2773876998561917E-2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2.0091362828862924E-3</v>
+      </c>
+      <c r="X2">
+        <f>ABS(L2-$H$15)</f>
+        <v>0.49737785158639986</v>
+      </c>
+      <c r="Y2">
+        <f>ABS(L2-$H$16)</f>
+        <v>0.5193601957870817</v>
+      </c>
+      <c r="Z2">
+        <f>ABS(M2-$I$15)</f>
+        <v>0.78044112285818457</v>
+      </c>
+      <c r="AA2">
+        <f>ABS(N2-$J$15)</f>
+        <v>0.19192538702309447</v>
+      </c>
+      <c r="AB2">
+        <f>MIN(X2:X47)</f>
+        <v>1.8792063630801437E-3</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AE2" si="1">MIN(Y2:Y47)</f>
+        <v>2.6221484136002005E-4</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>3.5545023696682554E-3</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>2.1148802977710712E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-0.56330000000000002</v>
+      </c>
+      <c r="B3">
+        <v>-0.31140000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.5134000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <f>MAX(A2:A47)</f>
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="I3">
+        <f>MAX(B2:B47)</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J3">
+        <f>MAX(C2:C47)</f>
+        <v>5.0594000000000001</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L47" si="2">(A3-$H$2)/($H$3-$H$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M47" si="3">(B3-$I$2)/($I$3-$I$2)</f>
+        <v>0.18082391542107185</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N47" si="4">(C3-$J$2)/($J$3-$J$2)</f>
+        <v>0.2500634464089333</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q47" si="5">ABS(L3-$H$9)</f>
+        <v>0.60685254785420861</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R47" si="6">ABS(N3-$J$9)</f>
+        <v>4.7077235428474751E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S47" si="7">ABS(N3-$J$10)</f>
+        <v>0.13653667202436337</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X47" si="8">ABS(L3-$H$15)</f>
+        <v>0.59771873088016791</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y47" si="9">ABS(L3-$H$16)</f>
+        <v>0.61970107508084971</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z47" si="10">ABS(M3-$I$15)</f>
+        <v>0.59961720743711266</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA47" si="11">ABS(N3-$J$15)</f>
+        <v>0.10164114711107347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0077</v>
+      </c>
+      <c r="D4">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.54855344812516393</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.77688662048851631</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.14311394975044414</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>5.8299099729044679E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0.15402673208696391</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>0.24348616868285253</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="8"/>
+        <v>4.9165282755003981E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="9"/>
+        <v>7.1147626955685772E-2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="10"/>
+        <v>3.5545023696682554E-3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="11"/>
+        <v>0.20859064376956263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-7.2099999999999997E-2</v>
+      </c>
+      <c r="B5">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.42933310025347443</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.57892818082391539</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.23758565265205989</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0.17751944760073418</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>5.9555029185348163E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>0.14901446578123678</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="8"/>
+        <v>0.16838563062669348</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="9"/>
+        <v>0.19036797482737527</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="10"/>
+        <v>0.20151294203426917</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="11"/>
+        <v>0.11411894086794688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.1002</v>
+      </c>
+      <c r="B6">
+        <v>-9.1700000000000004E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.5644</v>
+      </c>
+      <c r="D6">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3">
+        <v>1.736</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.40477231011275244</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.58129784907036097</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.26084933592758652</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.20208023774145617</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>3.6291345909821526E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0.12575078250571015</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="8"/>
+        <v>0.19294642076741547</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="9"/>
+        <v>0.21492876496809726</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>0.19914327378782359</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="11"/>
+        <v>9.0855257592420247E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.1421</v>
+      </c>
+      <c r="B7">
+        <v>-6.5100000000000005E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.36814963726946948</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.62978490703609191</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>7.943490398443448E-2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.23870291058473914</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0.21770577785297357</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0.30716521444886219</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="8"/>
+        <v>0.22956909361069844</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="9"/>
+        <v>0.25155143781138023</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="10"/>
+        <v>0.15065621582209265</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="11"/>
+        <v>0.27226968953557229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.47E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.5045999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.52303120356612198</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.77524608093328473</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.24820235174689115</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>8.382134428808663E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>4.8938330090516902E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0.13839776668640552</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="8"/>
+        <v>7.4687527314045932E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="9"/>
+        <v>9.6669871514727723E-2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="10"/>
+        <v>5.1950419248998347E-3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>0.10350224177311562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-6.5299999999999997E-2</v>
+      </c>
+      <c r="B9">
+        <v>-5.6599999999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.3736999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.4032</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(H6-$H$2)/($H$3-$H$2)</f>
+        <v>0.60685254785420861</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
+        <f>(J6-$J$2)/($J$3-$J$2)</f>
+        <v>0.29714068183740805</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.43527663665763489</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.64527889172438946</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.22051856864901448</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.17157591119657373</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>7.662211318839357E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>0.16608154978428219</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="8"/>
+        <v>0.16244209422253303</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="9"/>
+        <v>0.18442443842321482</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="10"/>
+        <v>0.13516223113379511</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="11"/>
+        <v>0.13118602487099229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="B10">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.3723000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.33610000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9">
+        <f>(J7-$J$2)/($J$3-$J$2)</f>
+        <v>0.38660011843329667</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.55563324884188459</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.7345971563981043</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.22022248540732597</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>5.1219299012324027E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>7.6918196430082075E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0.16637763302597069</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="8"/>
+        <v>4.2085482038283328E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>6.406782623896512E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="10"/>
+        <v>4.5843966460080265E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="11"/>
+        <v>0.1314821081126808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-0.1353</v>
+      </c>
+      <c r="B11">
+        <v>-0.14330000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.4196</v>
+      </c>
+      <c r="D11">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.37409317367362999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.48724024790375497</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.2302258692158024</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.23275937418057863</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>6.6914812621605646E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>0.15637424921749427</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="8"/>
+        <v>0.22362555720653793</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>0.24560790140721972</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="10"/>
+        <v>0.29320087495442959</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="11"/>
+        <v>0.12147872430420437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-0.2298</v>
+      </c>
+      <c r="B12">
+        <v>-0.29609999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.12055</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.755E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.994</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.29149549864522334</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.20871308786000739</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.31535704920898527</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0.29714068183740805</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>0.38660011843329667</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="8"/>
+        <v>0.30622323223494458</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>0.32820557643562637</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>0.57172803499817715</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>0.35170459352000677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="B13">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.3124</v>
+      </c>
+      <c r="D13">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.1457</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.55467179442356451</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.78581844695588787</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.20755435242365283</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>5.21807534306441E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>8.9586329413755217E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0.17904576600964384</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="8"/>
+        <v>4.3046936456603402E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>6.5029280657285193E-2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="10"/>
+        <v>5.3773240977033065E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="11"/>
+        <v>0.14415024109635394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.09E-2</v>
+      </c>
+      <c r="B14">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.1495000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.50187920636308025</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.75045570543200879</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.38459098215041038</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.10497334149112836</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>8.7450300313002327E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>2.0091362828862924E-3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="8"/>
+        <v>9.583952451708766E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>0.11782186871776945</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="10"/>
+        <v>2.9985417426175776E-2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="11"/>
+        <v>3.2886388630403607E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-0.2777</v>
+      </c>
+      <c r="B15">
+        <v>-0.2316</v>
+      </c>
+      <c r="C15">
+        <v>1.1918</v>
+      </c>
+      <c r="D15">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>(H12-$H$2)/($H$3-$H$2)</f>
+        <v>0.59771873088016791</v>
+      </c>
+      <c r="I15" s="5">
+        <f>(I12-$I$2)/($I$3-$I$2)</f>
+        <v>0.78044112285818457</v>
+      </c>
+      <c r="J15" s="6">
+        <f>(J12-$J$2)/($J$3-$J$2)</f>
+        <v>0.35170459352000677</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.24962852897474</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.32628508931826472</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0.18204889603248459</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.35722401887946864</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.11509178580492346</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0.20455122240081208</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>0.34809020190542794</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>0.37007254610610973</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="10"/>
+        <v>0.45415603353991985</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="11"/>
+        <v>0.16965569748752218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.1454</v>
+      </c>
+      <c r="B16">
+        <v>0.05</v>
+      </c>
+      <c r="C16">
+        <v>1.8762000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(H13-$H$2)/($H$3-$H$2)</f>
+        <v>0.61970107508084971</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.61943886023948957</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.83959168793292016</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0.32679130361221559</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>1.2586312385280962E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>2.965062177480754E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>5.980881482108108E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="8"/>
+        <v>2.172012935932166E-2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="9"/>
+        <v>2.6221484136013107E-4</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="10"/>
+        <v>5.9150565074735595E-2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="11"/>
+        <v>2.4913289907791181E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="B17">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.9941</v>
+      </c>
+      <c r="D17">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.81601258631238538</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.94859642726941307</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0.35172574232298454</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.20916003845817677</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>5.4585060485576486E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>3.4874376110312133E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="8"/>
+        <v>0.21829385543221747</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="9"/>
+        <v>0.19631151123153567</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="10"/>
+        <v>0.1681553044112285</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="11"/>
+        <v>2.1148802977766223E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-7.5700000000000003E-2</v>
+      </c>
+      <c r="B18">
+        <v>-8.2100000000000006E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.5077</v>
+      </c>
+      <c r="D18">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.42618652215715419</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.59879693765949693</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0.24885796463920146</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>0.18066602569705442</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>4.8282717198206593E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0.13774215379409521</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>0.17153220872301372</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>0.19351455292369552</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>0.18164418519868764</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>0.10284662888080531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="B19">
+        <v>2.63E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.6756</v>
+      </c>
+      <c r="D19">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.53177169827812265</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.79639081297849079</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>0.28436680483884613</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>7.5080849576085962E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>1.2773876998561917E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0.10223331359445054</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>6.5947032602045264E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="9"/>
+        <v>8.7929376802727055E-2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>1.5949690120306226E-2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="11"/>
+        <v>6.7337788681160637E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.15E-2</v>
+      </c>
+      <c r="B20">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.2602</v>
+      </c>
+      <c r="D20">
+        <v>0.6038</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.50240363604580018</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.74261757200145839</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0.19651467726926658</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0.10444891180840843</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0.10062600456814147</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>0.19008544116403009</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="8"/>
+        <v>9.5315094834367731E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>0.11729743903504952</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>3.7823550856726174E-2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>0.15518991625074019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.1227</v>
+      </c>
+      <c r="B21">
+        <v>0.1055</v>
+      </c>
+      <c r="C21">
+        <v>1.1434</v>
+      </c>
+      <c r="D21">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.59959793724324806</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>0.94075829383886256</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0.17181287539125287</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>7.2546106109605546E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0.12532780644615518</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0.2147872430420438</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>1.8792063630801437E-3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>2.0103137837601648E-2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>0.16031717098067799</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="11"/>
+        <v>0.1798917181287539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-0.2843</v>
+      </c>
+      <c r="B22">
+        <v>-0.27029999999999998</v>
+      </c>
+      <c r="C22">
+        <v>1.2722</v>
+      </c>
+      <c r="D22">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.24385980246481956</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.25574188844331031</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0.19905253362659675</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.36299274538938908</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>9.8088148210811299E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0.18754758480669992</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="8"/>
+        <v>0.35385892841534838</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="9"/>
+        <v>0.37584127261603018</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="10"/>
+        <v>0.5246992344148742</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="11"/>
+        <v>0.15265205989341002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="B23">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="C23">
+        <v>2.4870999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.94117647058823539</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.93091505650747364</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0.45598934100329924</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0.33432392273402678</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0.15884865916589119</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>6.9389222570002573E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="8"/>
+        <v>0.34345773970806748</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="9"/>
+        <v>0.32147539550738569</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="10"/>
+        <v>0.15047393364928907</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="11"/>
+        <v>0.10428474748329247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.0068999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.55956647146228478</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.78399562522785282</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0.35443278910413673</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>4.7286076391923837E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>5.7292107266728676E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>3.2167329329159944E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="8"/>
+        <v>3.8152259417883139E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="9"/>
+        <v>6.013460361856493E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="10"/>
+        <v>3.5545023696682554E-3</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="11"/>
+        <v>2.7281955841299554E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0.1075</v>
+      </c>
+      <c r="C25">
+        <v>3.2650999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.3548</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.82239314745214598</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.94440393729493266</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0.62052702817020555</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.21554059959793737</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0.3233863463327975</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0.23392690973690888</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>0.22467441657197806</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="9"/>
+        <v>0.20269207237129627</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="10"/>
+        <v>0.16396281443674809</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="11"/>
+        <v>0.26882243465019878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.1933</v>
+      </c>
+      <c r="B26">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.2505999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.661305829909973</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0.83467006926722576</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0.40597242196091704</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>5.4453282055764385E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>0.10883174012350899</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>1.9372303527620371E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="8"/>
+        <v>6.3587099029805083E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="9"/>
+        <v>4.1604754829123292E-2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>5.422894640904119E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="11"/>
+        <v>5.4267828440910271E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="B27">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.2401</v>
+      </c>
+      <c r="D27">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.77624333537278212</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.87932920160408323</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0.82672785720328235</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>0.1693907875185735</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>0.5295871753658743</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>0.44012773876998568</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="8"/>
+        <v>0.1785246044926142</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="9"/>
+        <v>0.15654226029193241</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="10"/>
+        <v>9.8888078745898667E-2</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="11"/>
+        <v>0.47502326368327558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="B28">
+        <v>5.11E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.45</v>
+      </c>
+      <c r="D28">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.76610436150686145</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.84159679183375868</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0.87111919465358256</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0.15925181365265284</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0.57397851281617451</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>0.48451907622028589</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>0.16838563062669354</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="9"/>
+        <v>0.14640328642601175</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="10"/>
+        <v>6.1155668975574118E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="11"/>
+        <v>0.51941460113357585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="B29">
+        <v>4.99E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.6925</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.59583952451708766</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.83940940576011669</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.463158785212757</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>1.1013023337120953E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0.16601810337534895</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>7.6558666779460327E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>1.8792063630802547E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="9"/>
+        <v>2.3861550563762046E-2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="10"/>
+        <v>5.8968282901932123E-2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="11"/>
+        <v>0.11145419169275023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="B30">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.0528</v>
+      </c>
+      <c r="D30">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.47723101127523826</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0.79092234779438575</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0.36414008967092465</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>0.12962153657897035</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>6.69994078335166E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>2.246002876237202E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>0.12048771960492966</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="9"/>
+        <v>0.14247006380561145</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="10"/>
+        <v>1.0481224936201183E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="11"/>
+        <v>1.243549615091788E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="B31">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.3489</v>
+      </c>
+      <c r="D31">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0.68193339743029457</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0.89044841414509668</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0.42676169528804675</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>7.5080849576085962E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0.1296210134506387</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>4.0161576854750081E-2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="8"/>
+        <v>8.421466655012666E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="9"/>
+        <v>6.2232322349444869E-2</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="10"/>
+        <v>0.11000729128691211</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="11"/>
+        <v>7.505710176803998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="B32">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.7972999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0.64120269207237135</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.87513671162960271</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0.31010489806276964</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>3.4350144218162737E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>1.2964216225361591E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>7.6495220370527028E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>4.3483961192203435E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="9"/>
+        <v>2.1501616991521644E-2</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="10"/>
+        <v>9.4695588771418149E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="11"/>
+        <v>4.1599695457237129E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="B33">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1692</v>
+      </c>
+      <c r="D33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0.61996328992220973</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.84287276704338321</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0.38875729633702738</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>1.3110742068001113E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>9.1616614499619331E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>2.1571779037307115E-3</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>2.2244559042041812E-2</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="9"/>
+        <v>2.6221484136002005E-4</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="10"/>
+        <v>6.2431644185198643E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="11"/>
+        <v>3.7052702817020611E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-9.8500000000000004E-2</v>
+      </c>
+      <c r="B34">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.5028999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0.40625819421379256</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>0.7260298942763399</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0.45933085187378397</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0.20059435364041606</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0.16219017003637592</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>7.2730733440487305E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="8"/>
+        <v>0.19146053666637536</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="9"/>
+        <v>0.21344288086705715</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="10"/>
+        <v>5.4411228581844662E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="11"/>
+        <v>0.1076262583537772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="B35">
+        <v>-3.1199999999999999E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>0.61454418320076931</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0.6915785636164784</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>2.751459267405465E-2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>7.691635346560699E-3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0.2696260891633534</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>0.35908552575924202</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>1.6825452320601397E-2</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="9"/>
+        <v>5.1568918800803942E-3</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="10"/>
+        <v>8.8862559241706163E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="11"/>
+        <v>0.32419000084595212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="B36">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="C36">
+        <v>2.6122999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.5151</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.61288348920548907</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>0.88115202333211828</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>0.48246764233144407</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>6.030941351280461E-3</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0.18532696049403602</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>9.58675238981474E-2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="8"/>
+        <v>1.5164758325321159E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="9"/>
+        <v>6.8175858753606322E-3</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>0.10071090047393372</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="11"/>
+        <v>0.1307630488114373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="B37">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C37">
+        <v>2.2347000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>0.62223581854732979</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.85125774699234424</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>0.4026097622874546</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>1.5383270693121176E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0.10546908045004655</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>1.6009643854157929E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="8"/>
+        <v>2.4517087667161874E-2</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="9"/>
+        <v>2.5347434664800828E-3</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="10"/>
+        <v>7.0816624134159678E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="11"/>
+        <v>5.0905168767447828E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.1633</v>
+      </c>
+      <c r="B38">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="C38">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.1978</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>0.63508434577397088</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.83703973751367122</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0.41811183487014636</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>2.8231797919762269E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0.12097115303273831</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>3.151171643684969E-2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>3.7365614893802968E-2</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="9"/>
+        <v>1.5383270693121176E-2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="10"/>
+        <v>5.6598614655486656E-2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="11"/>
+        <v>6.640724135013959E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="B39">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.8381000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>0.74643824840485984</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.85727305869485981</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>0.31873360967769226</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>0.13958570055065123</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>2.1592927840284215E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>6.7866508755604404E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>0.14871951752469192</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="9"/>
+        <v>0.12673717332401013</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="10"/>
+        <v>7.6831935836675247E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="11"/>
+        <v>3.2970983842314505E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.5383</v>
+      </c>
+      <c r="B40">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="C40">
+        <v>2.3292999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>0.96285289747399705</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.94239883339409414</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>0.42261652990440746</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>0.35600034961978844</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0.12547584806699941</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>3.6016411471110787E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="8"/>
+        <v>0.36513416659382913</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="9"/>
+        <v>0.34315182239314734</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="10"/>
+        <v>0.16195771053590957</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="11"/>
+        <v>7.0911936384400687E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="B41">
+        <v>-8.5400000000000004E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.0124</v>
+      </c>
+      <c r="D41">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>0.20129359321737614</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.59278162595698147</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0.56708400304542761</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>0.40555895463683245</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>0.26994332120801956</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0.18048388461213094</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="8"/>
+        <v>0.39642513766279175</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="9"/>
+        <v>0.41840748186347354</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="10"/>
+        <v>0.18765949690120309</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="11"/>
+        <v>0.21537940952542084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="B42">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.2444</v>
+      </c>
+      <c r="D42">
+        <v>0.1847</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>0.91058473909623294</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>0.91432737878235526</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>0.19317316639878185</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>0.30373219124202433</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0.1039675154386262</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0.19342695203451482</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="8"/>
+        <v>0.31286600821606503</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="9"/>
+        <v>0.29088366401538324</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="10"/>
+        <v>0.13388625592417069</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="11"/>
+        <v>0.15853142712122492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="C43">
+        <v>4.2918000000000003</v>
+      </c>
+      <c r="D43">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>0.98208198584039874</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0.95114837768866212</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>0.83766178834277993</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>0.37522943798619013</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0.54052110650537188</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0.45106166990948326</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="8"/>
+        <v>0.38436325496023083</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="9"/>
+        <v>0.36238091075954904</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="10"/>
+        <v>0.17070725483047755</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="11"/>
+        <v>0.48595719482277316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.2029</v>
+      </c>
+      <c r="B44">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.9939</v>
+      </c>
+      <c r="D44">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>0.66969670483349364</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0.89281808239154214</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>0.35168344471702906</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>6.2844156979285026E-2</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>5.454276287962101E-2</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>3.491667371626761E-2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>7.1977973953325725E-2</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="9"/>
+        <v>4.9995629752643933E-2</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="10"/>
+        <v>0.11237695953335758</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="11"/>
+        <v>2.1148802977710712E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="B45">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C45">
+        <v>2.9165999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0.90717594615855268</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>0.54682344979274178</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>0.30032339830434407</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>0.24968276795533373</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0.16022333135944511</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>0.30945721527838477</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="9"/>
+        <v>0.28747487107770298</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="10"/>
+        <v>0.21955887714181543</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="11"/>
+        <v>0.19511885627273501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.1661</v>
+      </c>
+      <c r="B46">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="C46">
+        <v>2.4527000000000001</v>
+      </c>
+      <c r="D46">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>0.63753168429333107</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0.81243164418519875</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>0.44871415277895277</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>3.0679136439122456E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>0.15157347094154472</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>6.2114034345656099E-2</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>3.9812953413163155E-2</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="9"/>
+        <v>1.7830609212481363E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="10"/>
+        <v>3.1990521327014187E-2</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="11"/>
+        <v>9.7009559258945999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="B47">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="C47">
+        <v>5.0594000000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.1268</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0.81607728764126874</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>0.39314745214579139</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>0.70285931816259195</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0.61339988156670333</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>0.40228126911983209</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="9"/>
+        <v>0.38029892491915029</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="10"/>
+        <v>3.5636164783084179E-2</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="11"/>
+        <v>0.64829540647999329</v>
       </c>
     </row>
   </sheetData>

--- a/data/nath_jones.xlsx
+++ b/data/nath_jones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43835AFA-B922-4ED7-9847-1AAA1129015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21124D22-C5B4-4496-B730-2CE4A771444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="75" windowWidth="19785" windowHeight="11940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="324" windowWidth="21144" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nath_jones" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Firm</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>d4</t>
+  </si>
+  <si>
+    <t>partition</t>
   </si>
 </sst>
 </file>
@@ -666,13 +669,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -2063,9 +2065,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2103,7 +2105,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2209,7 +2211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2351,7 +2353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2361,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,6 +2391,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2403,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-0.44850000000000001</v>
@@ -2415,6 +2420,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
@@ -2424,7 +2432,8 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <f>1+A2</f>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-0.56330000000000002</v>
@@ -2441,6 +2450,9 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2462,8 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <f t="shared" ref="A4:A47" si="0">1+A3</f>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>6.4299999999999996E-2</v>
@@ -2467,6 +2480,9 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2492,8 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-7.2099999999999997E-2</v>
@@ -2493,10 +2510,14 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-0.1002</v>
@@ -2513,10 +2534,14 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-0.1421</v>
@@ -2533,6 +2558,9 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2576,8 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.5099999999999999E-2</v>
@@ -2565,6 +2594,9 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2624,8 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-6.5299999999999997E-2</v>
@@ -2609,6 +2642,9 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -2639,7 +2675,8 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7.2400000000000006E-2</v>
@@ -2656,6 +2693,9 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2726,8 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-0.1353</v>
@@ -2703,6 +2744,9 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -2733,7 +2777,8 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-0.2298</v>
@@ -2750,10 +2795,14 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>7.1300000000000002E-2</v>
@@ -2770,10 +2819,14 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1.09E-2</v>
@@ -2790,10 +2843,14 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-0.2777</v>
@@ -2810,10 +2867,14 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0.1454</v>
@@ -2830,10 +2891,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0.37030000000000002</v>
@@ -2850,10 +2915,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-7.5700000000000003E-2</v>
@@ -2870,10 +2939,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>4.5100000000000001E-2</v>
@@ -2890,10 +2963,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1.15E-2</v>
@@ -2910,10 +2987,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0.1227</v>
@@ -2930,10 +3011,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-0.2843</v>
@@ -2950,10 +3035,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0.51349999999999996</v>
@@ -2970,10 +3059,14 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>7.6899999999999996E-2</v>
@@ -2990,10 +3083,14 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0.37759999999999999</v>
@@ -3010,10 +3107,14 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.1933</v>
@@ -3030,10 +3131,14 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>0.32479999999999998</v>
@@ -3050,10 +3155,14 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0.31319999999999998</v>
@@ -3070,10 +3179,14 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0.11840000000000001</v>
@@ -3090,10 +3203,14 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>-1.7299999999999999E-2</v>
@@ -3110,10 +3227,14 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0.21690000000000001</v>
@@ -3130,10 +3251,14 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>0.17030000000000001</v>
@@ -3150,10 +3275,14 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0.14599999999999999</v>
@@ -3170,10 +3299,14 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>-9.8500000000000004E-2</v>
@@ -3190,10 +3323,14 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0.13980000000000001</v>
@@ -3210,10 +3347,14 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0.13789999999999999</v>
@@ -3230,10 +3371,14 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0.14860000000000001</v>
@@ -3250,10 +3395,14 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0.1633</v>
@@ -3270,10 +3419,14 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0.29070000000000001</v>
@@ -3290,10 +3443,14 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0.5383</v>
@@ -3310,10 +3467,14 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>-0.33300000000000002</v>
@@ -3330,10 +3491,14 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0.47849999999999998</v>
@@ -3350,10 +3515,14 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0.56030000000000002</v>
@@ -3370,10 +3539,14 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0.2029</v>
@@ -3390,10 +3563,14 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>0.47460000000000002</v>
@@ -3410,10 +3587,14 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0.1661</v>
@@ -3430,10 +3611,14 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0.58079999999999998</v>
@@ -3449,6 +3634,9 @@
       </c>
       <c r="F47">
         <v>1</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15854460-3AEA-42B1-A0E8-A259ADCC34E5}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3911,8 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>2.1589999999999998</v>
       </c>
       <c r="L7">
@@ -3976,8 +4163,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="L8">
         <f t="shared" si="2"/>
         <v>0.52303120356612198</v>
@@ -4042,8 +4228,7 @@
         <f>(H6-$H$2)/($H$3-$H$2)</f>
         <v>0.60685254785420861</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f>(J6-$J$2)/($J$3-$J$2)</f>
         <v>0.29714068183740805</v>
       </c>
@@ -4107,9 +4292,9 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
         <f>(J7-$J$2)/($J$3-$J$2)</f>
         <v>0.38660011843329667</v>
       </c>
@@ -4308,8 +4493,7 @@
       <c r="H13" s="4">
         <v>0.1457</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="L13">
         <f t="shared" si="2"/>
         <v>0.55467179442356451</v>
@@ -4371,8 +4555,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="L14">
         <f t="shared" si="2"/>
         <v>0.50187920636308025</v>
@@ -4437,11 +4620,11 @@
         <f>(H12-$H$2)/($H$3-$H$2)</f>
         <v>0.59771873088016791</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <f>(I12-$I$2)/($I$3-$I$2)</f>
         <v>0.78044112285818457</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f>(J12-$J$2)/($J$3-$J$2)</f>
         <v>0.35170459352000677</v>
       </c>
@@ -4505,12 +4688,12 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>(H13-$H$2)/($H$3-$H$2)</f>
         <v>0.61970107508084971</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>0.61943886023948957</v>
